--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="588">
   <si>
     <t>Number</t>
   </si>
@@ -34,224 +34,238 @@
     <t>UCAPPSSE_486_TC1</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>ACM30_InitiateAMMFromSearchedContact;OneX00901 Hanoi;ConA;Hello;ldap on 10.102.1.151 is Fail
+10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 14:34:50 2018-09-22 14:34:50 2018-09-22 14:38:54</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_510_TC1</t>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>2018-09-08 14:55:32 2018-09-08 14:55:32 2018-09-08 15:01:26</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_510_TC1</t>
-  </si>
-  <si>
-    <t>2018-09-08 15:01:26 2018-09-08 15:01:26 2018-09-08 15:05:03</t>
+    <t>2018-09-22 14:38:54 2018-09-22 14:38:54 2018-09-22 14:42:41</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC3</t>
   </si>
   <si>
-    <t>2018-09-08 15:05:03 2018-09-08 15:05:03 2018-09-08 15:08:11</t>
+    <t>2018-09-22 14:42:41 2018-09-22 14:42:41 2018-09-22 14:45:53</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC6</t>
   </si>
   <si>
-    <t>2018-09-08 15:08:11 2018-09-08 15:08:11 2018-09-08 15:12:19</t>
+    <t>2018-09-22 14:45:53 2018-09-22 14:45:53 2018-09-22 14:50:03</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC7</t>
   </si>
   <si>
-    <t>2018-09-08 15:12:19 2018-09-08 15:12:19 2018-09-08 15:18:11</t>
+    <t>2018-09-22 14:50:03 2018-09-22 14:50:03 2018-09-22 14:55:58</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC9</t>
   </si>
   <si>
-    <t>2018-09-08 15:18:11 2018-09-08 15:18:11 2018-09-08 15:23:49</t>
+    <t>2018-09-22 14:55:59 2018-09-22 14:55:58 2018-09-22 15:01:40</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC14</t>
   </si>
   <si>
-    <t>2018-09-08 15:23:49 2018-09-08 15:23:49 2018-09-08 15:27:49</t>
+    <t>2018-09-22 15:01:40 2018-09-22 15:01:40 2018-09-22 15:05:41</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC15</t>
   </si>
   <si>
-    <t>2018-09-08 15:27:49 2018-09-08 15:27:49 2018-09-08 15:31:42</t>
+    <t>2018-09-22 15:05:41 2018-09-22 15:05:41 2018-09-22 15:09:37</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC2</t>
   </si>
   <si>
-    <t>2018-09-08 15:31:42 2018-09-08 15:31:42 2018-09-08 15:35:13</t>
+    <t>2018-09-22 15:09:37 2018-09-22 15:09:37 2018-09-22 15:13:08</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC4</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>verifyStatusThread Fail
 10.102.1.151 is Fail</t>
   </si>
   <si>
-    <t>2018-09-08 15:35:13 2018-09-08 15:35:13 2018-09-08 15:39:50</t>
+    <t>2018-09-22 15:13:08 2018-09-22 15:13:08 2018-09-22 15:17:45</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC8</t>
   </si>
   <si>
-    <t>2018-09-08 15:39:50 2018-09-08 15:39:50 2018-09-08 15:44:58</t>
+    <t>2018-09-22 15:17:45 2018-09-22 15:17:45 2018-09-22 15:22:56</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC17</t>
   </si>
   <si>
-    <t>2018-09-08 15:44:58 2018-09-08 15:44:58 2018-09-08 15:49:53</t>
+    <t>DropConference Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 15:22:56 2018-09-22 15:22:56 2018-09-22 15:30:43</t>
   </si>
   <si>
     <t>UCAPPSSE_510_TC16</t>
   </si>
   <si>
-    <t>2018-09-08 15:49:53 2018-09-08 15:49:53 2018-09-08 15:55:49</t>
+    <t>2018-09-22 15:30:43 2018-09-22 15:30:43 2018-09-22 15:36:25</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC1</t>
   </si>
   <si>
-    <t>2018-09-08 15:55:49 2018-09-08 15:55:49 2018-09-08 15:59:17</t>
+    <t>2018-09-22 15:36:25 2018-09-22 15:36:25 2018-09-22 15:39:57</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC3</t>
   </si>
   <si>
-    <t>2018-09-08 15:59:17 2018-09-08 15:59:17 2018-09-08 16:03:16</t>
+    <t>2018-09-22 15:39:57 2018-09-22 15:39:57 2018-09-22 15:43:59</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC4</t>
   </si>
   <si>
-    <t>2018-09-08 16:03:16 2018-09-08 16:03:16 2018-09-08 16:07:39</t>
+    <t>2018-09-22 15:43:59 2018-09-22 15:43:59 2018-09-22 15:48:22</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC5</t>
   </si>
   <si>
-    <t>2018-09-08 16:07:39 2018-09-08 16:07:39 2018-09-08 16:13:38</t>
+    <t>2018-09-22 15:48:22 2018-09-22 15:48:22 2018-09-22 15:54:22</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC7</t>
   </si>
   <si>
-    <t>2018-09-08 16:13:38 2018-09-08 16:13:38 2018-09-08 16:19:23</t>
+    <t>2018-09-22 15:54:23 2018-09-22 15:54:22 2018-09-22 16:00:12</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC12</t>
   </si>
   <si>
-    <t>2018-09-08 16:19:23 2018-09-08 16:19:23 2018-09-08 16:23:00</t>
+    <t>2018-09-22 16:00:12 2018-09-22 16:00:12 2018-09-22 16:03:59</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC17</t>
   </si>
   <si>
-    <t>2018-09-08 16:23:00 2018-09-08 16:23:00 2018-09-08 16:28:50</t>
+    <t>2018-09-22 16:03:59 2018-09-22 16:03:59 2018-09-22 16:09:56</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC2</t>
   </si>
   <si>
-    <t>2018-09-08 16:28:50 2018-09-08 16:28:50 2018-09-08 16:32:36</t>
+    <t>2018-09-22 16:09:56 2018-09-22 16:09:56 2018-09-22 16:13:43</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC6</t>
   </si>
   <si>
-    <t>2018-09-08 16:32:36 2018-09-08 16:32:36 2018-09-08 16:37:54</t>
+    <t>2018-09-22 16:13:43 2018-09-22 16:13:43 2018-09-22 16:19:04</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC13</t>
   </si>
   <si>
-    <t>2018-09-08 16:37:54 2018-09-08 16:37:54 2018-09-08 16:41:50</t>
+    <t>2018-09-22 16:19:04 2018-09-22 16:19:04 2018-09-22 16:22:59</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC14</t>
   </si>
   <si>
-    <t>2018-09-08 16:41:50 2018-09-08 16:41:50 2018-09-08 16:45:48</t>
+    <t>2018-09-22 16:22:59 2018-09-22 16:22:59 2018-09-22 16:26:58</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC15</t>
   </si>
   <si>
-    <t>2018-09-08 16:45:48 2018-09-08 16:45:48 2018-09-08 16:50:09</t>
+    <t>2018-09-22 16:26:58 2018-09-22 16:26:58 2018-09-22 16:31:19</t>
   </si>
   <si>
     <t>UCAPPSSE_511_TC16</t>
   </si>
   <si>
-    <t>2018-09-08 16:50:09 2018-09-08 16:50:09 2018-09-08 16:56:08</t>
+    <t>2018-09-22 16:31:19 2018-09-22 16:31:19 2018-09-22 16:37:18</t>
   </si>
   <si>
     <t>UCAPPSSE_762_TC1</t>
   </si>
   <si>
-    <t>2018-09-08 16:56:08 2018-09-08 16:56:08 2018-09-08 17:01:56</t>
+    <t>ReceiveMessageInPublicChat Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 16:37:18 2018-09-22 16:37:18 2018-09-22 16:45:16</t>
   </si>
   <si>
     <t>UCAPPSSE_762_TC2</t>
   </si>
   <si>
-    <t>2018-09-08 17:01:56 2018-09-08 17:01:56 2018-09-08 17:08:05</t>
+    <t>2018-09-22 16:45:16 2018-09-22 16:45:16 2018-09-22 16:51:45</t>
   </si>
   <si>
     <t>UCAPPSSE_762_TC3</t>
   </si>
   <si>
-    <t>2018-09-08 17:08:05 2018-09-08 17:08:05 2018-09-08 17:13:06</t>
+    <t>2018-09-22 16:51:45 2018-09-22 16:51:45 2018-09-22 16:58:37</t>
   </si>
   <si>
     <t>UCAPPSSE_762_TC4</t>
   </si>
   <si>
-    <t>2018-09-08 17:13:06 2018-09-08 17:13:06 2018-09-08 17:17:57</t>
+    <t>2018-09-22 16:58:37 2018-09-22 16:58:37 2018-09-22 17:06:17</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC7</t>
   </si>
   <si>
-    <t>2018-09-08 17:17:57 2018-09-08 17:17:57 2018-09-08 17:22:30</t>
+    <t>2018-09-22 17:06:17 2018-09-22 17:06:17 2018-09-22 17:11:18</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC31</t>
   </si>
   <si>
-    <t>2018-09-08 17:22:30 2018-09-08 17:22:30 2018-09-08 17:26:50</t>
+    <t>2018-09-22 17:11:18 2018-09-22 17:11:18 2018-09-22 17:15:38</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC32</t>
   </si>
   <si>
-    <t>2018-09-08 17:26:50 2018-09-08 17:26:50 2018-09-08 17:31:58</t>
+    <t>2018-09-22 17:15:38 2018-09-22 17:15:38 2018-09-22 17:23:38</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC33</t>
   </si>
   <si>
-    <t>2018-09-08 17:31:58 2018-09-08 17:31:58 2018-09-08 17:37:40</t>
+    <t>AddUserToActiveCallByEnteringNumber Fail
+10.102.1.176 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 17:23:38 2018-09-22 17:23:38 2018-09-22 17:29:11</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC34</t>
   </si>
   <si>
-    <t>2018-09-08 17:37:40 2018-09-08 17:37:40 2018-09-08 17:43:42</t>
+    <t>2018-09-22 17:29:11 2018-09-22 17:29:11 2018-09-22 17:35:28</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC78</t>
@@ -261,7 +275,7 @@
 10.102.1.176 is Fail</t>
   </si>
   <si>
-    <t>2018-09-08 17:43:42 2018-09-08 17:43:42 2018-09-08 17:49:22</t>
+    <t>2018-09-22 17:35:28 2018-09-22 17:35:28 2018-09-22 17:41:09</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC79</t>
@@ -270,1500 +284,1319 @@
     <t>BecomeModerator Fail</t>
   </si>
   <si>
-    <t>2018-09-08 17:49:22 2018-09-08 17:49:22 2018-09-08 17:56:25</t>
+    <t>2018-09-22 17:41:09 2018-09-22 17:41:09 2018-09-22 17:48:09</t>
   </si>
   <si>
     <t>UCAPPSSE_2751_TC1</t>
   </si>
   <si>
-    <t>2018-09-08 17:56:25 2018-09-08 17:56:25 2018-09-08 18:01:27</t>
+    <t>2018-09-22 17:48:09 2018-09-22 17:48:09 2018-09-22 17:53:18</t>
   </si>
   <si>
     <t>UCAPPSSE_2751_TC4</t>
   </si>
   <si>
-    <t>2018-09-08 18:01:27 2018-09-08 18:01:27 2018-09-08 18:08:32</t>
+    <t>2018-09-22 17:53:18 2018-09-22 17:53:18 2018-09-22 18:00:17</t>
   </si>
   <si>
     <t>UCAPPSSE_2745_TC1</t>
   </si>
   <si>
-    <t>2018-09-08 18:08:32 2018-09-08 18:08:32 2018-09-08 18:13:02</t>
+    <t>2018-09-22 18:00:17 2018-09-22 18:00:17 2018-09-22 18:05:18</t>
   </si>
   <si>
     <t>UCAPPSSE_2745_TC5</t>
   </si>
   <si>
-    <t>2018-09-08 18:13:03 2018-09-08 18:13:02 2018-09-08 18:18:32</t>
+    <t>2018-09-22 18:05:18 2018-09-22 18:05:18 2018-09-22 18:10:49</t>
   </si>
   <si>
     <t>UCAPPSSE_2747_TC6</t>
   </si>
   <si>
-    <t>2018-09-08 18:18:32 2018-09-08 18:18:32 2018-09-08 18:21:22</t>
+    <t>2018-09-22 18:10:49 2018-09-22 18:10:49 2018-09-22 18:13:40</t>
   </si>
   <si>
     <t>UCAPPSSE_2926_TC18A</t>
   </si>
   <si>
-    <t>Cannot connect to 10.102.1.184
-TakeScreenshotDesktop;UCAPPSSE_2926_TC18A;_08-Sep-18_06-21-41_615_PM on null is Fail
+    <t>adb connect Fail due to 10.102.1.184:5555	unauthorized
+TakeScreenshotDesktop;UCAPPSSE_2926_TC18A;_22-Sep-18_06-14-02_239_PM on null is Fail
+Cleanup on null is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:13:40 2018-09-22 18:13:40 2018-09-22 18:17:30</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC18B</t>
+  </si>
+  <si>
+    <t>10.102.1.172 is Fail
+10.102.1.172 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:17:30 2018-09-22 18:17:30 2018-09-22 18:19:54</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC18C</t>
+  </si>
+  <si>
+    <t>10.102.1.172 is Fail
+10.102.1.172 is Fail
+Phone does not slected logout option to logout phone, Logged out failed.</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:19:54 2018-09-22 18:19:54 2018-09-22 18:22:07</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_510_TC10</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:23:37 2018-09-22 18:23:37 2018-09-22 18:27:23</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_510_TC11</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:27:23 2018-09-22 18:27:23 2018-09-22 18:30:55</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_510_TC18</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:30:55 2018-09-22 18:30:55 2018-09-22 18:34:16</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_510_TC19</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:34:16 2018-09-22 18:34:16 2018-09-22 18:37:58</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_511_TC8</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:37:58 2018-09-22 18:37:58 2018-09-22 18:41:29</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_511_TC9</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:41:29 2018-09-22 18:41:29 2018-09-22 18:45:07</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_511_TC18</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:45:07 2018-09-22 18:45:07 2018-09-22 18:49:06</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_511_TC19</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:49:06 2018-09-22 18:49:06 2018-09-22 18:53:15</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_610_TC7</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:53:15 2018-09-22 18:53:15 2018-09-22 18:57:50</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_626_TC11</t>
+  </si>
+  <si>
+    <t>2018-09-22 18:57:50 2018-09-22 18:57:50 2018-09-22 19:01:23</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_626_TC12</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:01:23 2018-09-22 19:01:23 2018-09-22 19:05:25</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_519_TC1</t>
+  </si>
+  <si>
+    <t>ACW30_SwitchToSharedControlMode on 10.128.224.51 is Fail
+ACW30_SwitchToVOIPMode on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:05:25 2018-09-22 19:05:25 2018-09-22 19:10:49</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_519_TC2</t>
+  </si>
+  <si>
+    <t>ACM30_SwitchToSharedControlMode on 10.102.1.151 is Fail
+TakeScreenshotDesktop;UCAPPSSE_519_TC2;_22-Sep-18_07-12-45_823_PM on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:10:49 2018-09-22 19:10:49 2018-09-22 19:19:37</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_519_TC3</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:19:37 2018-09-22 19:19:37 2018-09-22 19:25:34</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_519_TC4</t>
+  </si>
+  <si>
+    <t>ACM30_SwitchToSharedControlMode on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:25:34 2018-09-22 19:25:34 2018-09-22 19:30:59</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_519_TC5</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:30:59 2018-09-22 19:30:59 2018-09-22 19:36:38</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_519_TC6</t>
+  </si>
+  <si>
+    <t>ACM30_SwitchToSharedControlMode on 10.102.1.151 is Fail
+TakeScreenshotDesktop;UCAPPSSE_519_TC6;_22-Sep-18_07-38-59_602_PM on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:36:38 2018-09-22 19:36:38 2018-09-22 19:46:57</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_519_TC7</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:46:57 2018-09-22 19:46:57 2018-09-22 19:52:45</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC32A</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:52:45 2018-09-22 19:52:45 2018-09-22 19:58:21</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC1</t>
+  </si>
+  <si>
+    <t>2018-09-22 19:58:21 2018-09-22 19:58:21 2018-09-22 20:11:16</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC7</t>
+  </si>
+  <si>
+    <t>ACW30_MakeCallFromOutlookContactCard;OneX00902 Hanoi;VIDEO on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 20:11:16 2018-09-22 20:11:16 2018-09-22 20:17:19</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2750_TC1</t>
+  </si>
+  <si>
+    <t>2018-09-22 20:19:55 2018-09-22 20:19:55 2018-09-22 20:26:59</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2750_TC66</t>
+  </si>
+  <si>
+    <t>2018-09-22 20:26:59 2018-09-22 20:26:59 2018-09-22 20:34:22</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2750_TC67</t>
+  </si>
+  <si>
+    <t>2018-09-22 20:34:22 2018-09-22 20:34:22 2018-09-22 20:38:48</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2750_TC72</t>
+  </si>
+  <si>
+    <t>2018-09-22 20:38:48 2018-09-22 20:38:48 2018-09-22 20:43:40</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2750_TC73</t>
+  </si>
+  <si>
+    <t>DropConference Fail
+verifyStatusThread Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 20:43:40 2018-09-22 20:43:40 2018-09-22 20:53:22</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2745_TC2</t>
+  </si>
+  <si>
+    <t>2018-09-22 20:53:22 2018-09-22 20:53:22 2018-09-22 20:58:32</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2745_TC6</t>
+  </si>
+  <si>
+    <t>2018-09-22 20:58:32 2018-09-22 20:58:32 2018-09-22 21:03:13</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2745_TC8</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:03:13 2018-09-22 21:03:13 2018-09-22 21:09:13</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2745_TC10</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:09:13 2018-09-22 21:09:13 2018-09-22 21:17:02</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2752_TC5</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:17:02 2018-09-22 21:17:02 2018-09-22 21:22:14</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC11</t>
+  </si>
+  <si>
+    <t>10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:23:43 2018-09-22 21:23:43 2018-09-22 21:29:40</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC12</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:29:40 2018-09-22 21:29:40 2018-09-22 21:33:26</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC13</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:33:26 2018-09-22 21:33:26 2018-09-22 21:38:05</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC16</t>
+  </si>
+  <si>
+    <t>MergeCall Fail
+10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:38:05 2018-09-22 21:38:05 2018-09-22 21:45:33</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC17</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:45:33 2018-09-22 21:45:33 2018-09-22 21:50:58</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC18</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:50:58 2018-09-22 21:50:58 2018-09-22 21:54:37</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC19</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:54:37 2018-09-22 21:54:37 2018-09-22 21:58:33</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC21</t>
+  </si>
+  <si>
+    <t>2018-09-22 21:58:33 2018-09-22 21:58:33 2018-09-22 22:01:54</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC29</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:01:54 2018-09-22 22:01:54 2018-09-22 22:06:18</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC22</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:06:18 2018-09-22 22:06:18 2018-09-22 22:09:44</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC45</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:09:44 2018-09-22 22:09:44 2018-09-22 22:14:18</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC46</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:14:18 2018-09-22 22:14:18 2018-09-22 22:16:44</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC47</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:16:44 2018-09-22 22:16:44 2018-09-22 22:19:14</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC48</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:19:14 2018-09-22 22:19:14 2018-09-22 22:22:30</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC49</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:22:30 2018-09-22 22:22:30 2018-09-22 22:24:58</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC31</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:24:58 2018-09-22 22:24:58 2018-09-22 22:29:26</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC33</t>
+  </si>
+  <si>
+    <t>Info : AC Error: Disconnected from ExecutionManager[0]</t>
+  </si>
+  <si>
+    <t>2018-09-22 22:29:26 2018-09-22 22:29:26 2018-09-23 14:55:02</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC20</t>
+  </si>
+  <si>
+    <t>2018-09-23 14:55:02 2018-09-23 14:55:02 2018-09-23 14:58:08</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_13_TC14</t>
+  </si>
+  <si>
+    <t>ACM30_SwitchToSharedControlMode on 10.102.1.151 is Fail
+ACM30_SwitchToVOIPMode on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 15:46:09 2018-09-23 15:46:09 2018-09-23 15:51:51</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_510_TC12</t>
+  </si>
+  <si>
+    <t>2018-09-23 15:51:51 2018-09-23 15:51:51 2018-09-23 15:58:34</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_511_TC10</t>
+  </si>
+  <si>
+    <t>2018-09-23 15:58:34 2018-09-23 15:58:34 2018-09-23 16:05:19</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_545_TC40</t>
+  </si>
+  <si>
+    <t>2018-09-23 16:05:19 2018-09-23 16:05:19 2018-09-23 16:11:57</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_584_TC11</t>
+  </si>
+  <si>
+    <t>2018-09-23 16:11:57 2018-09-23 16:11:57 2018-09-23 16:16:14</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2857_TC13</t>
+  </si>
+  <si>
+    <t>2018-09-23 16:16:14 2018-09-23 16:16:14 2018-09-23 16:20:19</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_545_TC7</t>
+  </si>
+  <si>
+    <t>2018-09-23 16:20:19 2018-09-23 16:20:19 2018-09-23 16:26:33</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_545_TC12</t>
+  </si>
+  <si>
+    <t>VerifyContactStatusMessageInContactDetailView Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 16:26:33 2018-09-23 16:26:33 2018-09-23 16:46:30</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_545_TC13</t>
+  </si>
+  <si>
+    <t>ACM30_AnswerAudioCall;1 on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 16:46:30 2018-09-23 16:46:30 2018-09-23 16:58:58</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_545_TC15</t>
+  </si>
+  <si>
+    <t>2018-09-23 16:58:58 2018-09-23 16:58:58 2018-09-23 17:04:34</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_545_TC42</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:04:34 2018-09-23 17:04:34 2018-09-23 17:12:47</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC10</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:12:47 2018-09-23 17:12:47 2018-09-23 17:16:41</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC1</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:16:41 2018-09-23 17:16:41 2018-09-23 17:22:17</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC2</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:22:17 2018-09-23 17:22:17 2018-09-23 17:27:53</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC3</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:27:53 2018-09-23 17:27:53 2018-09-23 17:31:43</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC4</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:31:43 2018-09-23 17:31:43 2018-09-23 17:35:46</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC5</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:35:46 2018-09-23 17:35:46 2018-09-23 17:41:56</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC6</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:41:56 2018-09-23 17:41:56 2018-09-23 17:47:39</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC7</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:47:39 2018-09-23 17:47:39 2018-09-23 17:53:19</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC8</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:53:19 2018-09-23 17:53:19 2018-09-23 17:57:17</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_518_TC9</t>
+  </si>
+  <si>
+    <t>2018-09-23 17:57:17 2018-09-23 17:57:17 2018-09-23 18:02:54</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_520_TC1</t>
+  </si>
+  <si>
+    <t>ACM30_SwitchToSharedControlMode on 10.102.1.151 is Fail
+TakeScreenshotDesktop;UCAPPSSE_520_TC1;_23-Sep-18_06-05-33_404_PM on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:02:54 2018-09-23 18:02:54 2018-09-23 18:13:30</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC1</t>
+  </si>
+  <si>
+    <t>AnswerCallWithAudio;1 on 10.102.1.176 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:14:22 2018-09-23 18:14:22 2018-09-23 18:20:33</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC2</t>
+  </si>
+  <si>
+    <t>ACW30_AnswerAudioCall;1 on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:20:33 2018-09-23 18:20:33 2018-09-23 18:27:04</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC3</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:27:05 2018-09-23 18:27:04 2018-09-23 18:32:50</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC4</t>
+  </si>
+  <si>
+    <t>HoldCall Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:32:50 2018-09-23 18:32:50 2018-09-23 18:39:40</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC5</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:39:40 2018-09-23 18:39:40 2018-09-23 18:43:57</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC6</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:43:57 2018-09-23 18:43:57 2018-09-23 18:48:49</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC7</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:48:49 2018-09-23 18:48:49 2018-09-23 18:53:33</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC9</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:53:33 2018-09-23 18:53:33 2018-09-23 18:58:08</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC10</t>
+  </si>
+  <si>
+    <t>2018-09-23 18:58:08 2018-09-23 18:58:08 2018-09-23 19:03:55</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC14</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:03:55 2018-09-23 19:03:55 2018-09-23 19:09:36</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC28</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:09:36 2018-09-23 19:09:36 2018-09-23 19:13:49</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_163_TC30</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:13:49 2018-09-23 19:13:49 2018-09-23 19:19:08</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC1</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:19:08 2018-09-23 19:19:08 2018-09-23 19:29:48</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC2</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:29:48 2018-09-23 19:29:48 2018-09-23 19:34:06</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC4</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:34:06 2018-09-23 19:34:06 2018-09-23 19:39:42</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC14</t>
+  </si>
+  <si>
+    <t>verifyStatusThread Fail
+verifyStatusThread is timeout after 5 minute(s) 
+10.102.1.172 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:39:42 2018-09-23 19:39:42 2018-09-23 19:46:29</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC23</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:46:29 2018-09-23 19:46:29 2018-09-23 19:50:55</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC32</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:50:55 2018-09-23 19:50:55 2018-09-23 19:55:26</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC16</t>
+  </si>
+  <si>
+    <t>CallFromFirstCallLog Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 19:55:26 2018-09-23 19:55:26 2018-09-23 20:02:44</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC17</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:02:44 2018-09-23 20:02:44 2018-09-23 20:10:18</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC3</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:10:18 2018-09-23 20:10:18 2018-09-23 20:18:16</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC11</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:18:16 2018-09-23 20:18:16 2018-09-23 20:24:18</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC13</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:24:18 2018-09-23 20:24:18 2018-09-23 20:30:42</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC14</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:30:42 2018-09-23 20:30:42 2018-09-23 20:35:32</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC15</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:35:32 2018-09-23 20:35:32 2018-09-23 20:42:08</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC28</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:42:08 2018-09-23 20:42:08 2018-09-23 20:47:27</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC2</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:47:27 2018-09-23 20:47:27 2018-09-23 20:52:12</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC5</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:52:12 2018-09-23 20:52:12 2018-09-23 20:57:57</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC6</t>
+  </si>
+  <si>
+    <t>2018-09-23 20:57:57 2018-09-23 20:57:57 2018-09-23 21:03:29</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC7</t>
+  </si>
+  <si>
+    <t>ACW30_VerifyContactPictureInsideAMMConversation;user1Image on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:03:29 2018-09-23 21:03:29 2018-09-23 21:13:42</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC8</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:13:42 2018-09-23 21:13:42 2018-09-23 21:20:09</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC9</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:20:09 2018-09-23 21:20:09 2018-09-23 21:26:36</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC10</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:26:36 2018-09-23 21:26:36 2018-09-23 21:34:01</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC12</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:34:01 2018-09-23 21:34:01 2018-09-23 21:38:53</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC23</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:38:53 2018-09-23 21:38:53 2018-09-23 21:42:53</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC24</t>
+  </si>
+  <si>
+    <t>VerifyCallLog Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:42:54 2018-09-23 21:42:53 2018-09-23 21:49:58</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC25</t>
+  </si>
+  <si>
+    <t>ACW30_BridgeInCall;secondary;1 on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:49:58 2018-09-23 21:49:58 2018-09-23 21:56:06</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC27</t>
+  </si>
+  <si>
+    <t>FilterCallLogType Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 21:56:06 2018-09-23 21:56:06 2018-09-23 22:02:10</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2751_TC29</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:02:10 2018-09-23 22:02:10 2018-09-23 22:10:42</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2745_TC3</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:10:42 2018-09-23 22:10:42 2018-09-23 22:15:35</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2745_TC7</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:15:35 2018-09-23 22:15:35 2018-09-23 22:20:44</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2745_TC9</t>
+  </si>
+  <si>
+    <t>ACW30_VerifyMeetingMode;presentationAudioVideo;yes on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:20:44 2018-09-23 22:20:44 2018-09-23 22:29:26</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2752_TC13</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:29:26 2018-09-23 22:29:26 2018-09-23 22:33:33</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2752_TC15</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:33:33 2018-09-23 22:33:33 2018-09-23 22:41:04</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2752_TC17</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:41:04 2018-09-23 22:41:04 2018-09-23 22:45:58</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2752_TC19</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:45:58 2018-09-23 22:45:58 2018-09-23 22:53:24</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2752_TC20</t>
+  </si>
+  <si>
+    <t>DropConference Fail
+10.102.1.176 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:53:24 2018-09-23 22:53:24 2018-09-23 22:59:53</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_501_TC3</t>
+  </si>
+  <si>
+    <t>2018-09-23 22:59:54 2018-09-23 22:59:53 2018-09-23 23:14:21</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_501_TC13</t>
+  </si>
+  <si>
+    <t>2018-09-23 23:14:21 2018-09-23 23:14:21 2018-09-23 23:22:14</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_501_TC11</t>
+  </si>
+  <si>
+    <t>2018-09-23 23:22:14 2018-09-23 23:22:14 2018-09-23 23:31:02</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_501_TC15</t>
+  </si>
+  <si>
+    <t>ACW30_SwitchToSharedControlMode on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 23:31:02 2018-09-23 23:31:02 2018-09-23 23:37:28</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2741_TC3</t>
+  </si>
+  <si>
+    <t>ACW30_JoinScopiaConferenceFromWebPortal;namedUser;;;https://esg3202.tma.com.vn:8443/portal/tenants/default/;audioVideoPresentation; on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 23:37:29 2018-09-23 23:37:28 2018-09-23 23:42:55</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2741_TC4</t>
+  </si>
+  <si>
+    <t>ACW30_JoinScopiaConferenceFromWebPortal;guestUser;guestUser;7984449900901;https://esg3202.tma.com.vn:8443/portal/tenants/default/;audioVideoPresentation;901 on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 23:42:55 2018-09-23 23:42:55 2018-09-23 23:50:17</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2741_TC7</t>
+  </si>
+  <si>
+    <t>verifyStatusThread Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 23:50:17 2018-09-23 23:50:17 2018-09-23 23:52:38</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2741_TC9</t>
+  </si>
+  <si>
+    <t>verifyStatusThread Fail
+verifyStatusThread Fail</t>
+  </si>
+  <si>
+    <t>2018-09-23 23:52:38 2018-09-23 23:52:38 2018-09-23 23:56:39</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2741_TC10</t>
+  </si>
+  <si>
+    <t>2018-09-23 23:56:39 2018-09-23 23:56:39 2018-09-24 00:04:47</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2747_TC20</t>
+  </si>
+  <si>
+    <t>ACW30_ChangeCameraDevice;2 on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:04:47 2018-09-24 00:04:47 2018-09-24 00:11:35</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2842_TC1</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:11:35 2018-09-24 00:11:35 2018-09-24 00:15:41</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2842_TC4</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:15:41 2018-09-24 00:15:41 2018-09-24 00:18:32</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2842_TC5</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:18:32 2018-09-24 00:18:32 2018-09-24 00:23:56</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC8</t>
+  </si>
+  <si>
+    <t>OneX_ReceiveIMs;OneX00900 Hanoi;initiate msg on 10.102.1.191 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:23:56 2018-09-24 00:23:56 2018-09-24 00:30:23</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC9</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:30:23 2018-09-24 00:30:23 2018-09-24 00:36:14</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC10</t>
+  </si>
+  <si>
+    <t>OneX_ReceiveIMs;OneX00901 Hanoi, OneX00900 Hanoi;Hello all on 10.102.1.191 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:36:14 2018-09-24 00:36:14 2018-09-24 00:43:13</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC15</t>
+  </si>
+  <si>
+    <t>OneX_SendSimpleMessage;OneX00901 Hanoi, OneX00900 Hanoi, OneX00902 Hanoi;Aloha on 10.102.1.191 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:43:13 2018-09-24 00:43:13 2018-09-24 00:50:22</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC16</t>
+  </si>
+  <si>
+    <t>OneX_SendSimpleMessage;OneX00900 Hanoi, OneX00901 Hanoi, OneX00902 Hanoi;User1 says hello on 10.102.1.191 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:50:22 2018-09-24 00:50:22 2018-09-24 00:56:50</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC17</t>
+  </si>
+  <si>
+    <t>OneX_OpenHyperlink;OneX00901 Hanoi, OneX00900 Hanoi on 10.102.1.191 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 00:56:50 2018-09-24 00:56:50 2018-09-24 01:04:36</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC19</t>
+  </si>
+  <si>
+    <t>OneX_SendSimpleMessage;OneX00901 Hanoi, OneX00902 Hanoi;User1 says hello on 10.102.1.191 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 01:04:36 2018-09-24 01:04:36 2018-09-24 01:10:29</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC70</t>
+  </si>
+  <si>
+    <t>OneX_VerifyMessageBox;1 on 10.102.1.191 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 01:10:29 2018-09-24 01:10:29 2018-09-24 01:17:13</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC71</t>
+  </si>
+  <si>
+    <t>ACM30_OpenConversation;OneX00881 Hanoi on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 01:17:13 2018-09-24 01:17:13 2018-09-24 01:26:37</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC72</t>
+  </si>
+  <si>
+    <t>2018-09-24 01:26:37 2018-09-24 01:26:37 2018-09-24 01:31:35</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC20</t>
+  </si>
+  <si>
+    <t>2018-09-24 01:31:35 2018-09-24 01:31:35 2018-09-24 01:48:35</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC22</t>
+  </si>
+  <si>
+    <t>2018-09-24 01:48:35 2018-09-24 01:48:35 2018-09-24 01:55:30</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC25</t>
+  </si>
+  <si>
+    <t>2018-09-24 01:55:30 2018-09-24 01:55:30 2018-09-24 02:01:53</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC28</t>
+  </si>
+  <si>
+    <t>2018-09-24 02:01:53 2018-09-24 02:01:53 2018-09-24 02:06:35</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC29</t>
+  </si>
+  <si>
+    <t>2018-09-24 02:06:35 2018-09-24 02:06:35 2018-09-24 02:21:08</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC31</t>
+  </si>
+  <si>
+    <t>ACM30_AddTextToAMM;overMaximum on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 02:21:08 2018-09-24 02:21:08 2018-09-24 02:32:38</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC34</t>
+  </si>
+  <si>
+    <t>2018-09-24 02:32:38 2018-09-24 02:32:38 2018-09-24 02:39:05</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC37</t>
+  </si>
+  <si>
+    <t>2018-09-24 02:39:05 2018-09-24 02:39:05 2018-09-24 02:44:47</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC38</t>
+  </si>
+  <si>
+    <t>ACW30_OpenAttachment;OneX00901;Photo on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 02:44:47 2018-09-24 02:44:47 2018-09-24 02:53:51</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC40</t>
+  </si>
+  <si>
+    <t>2018-09-24 02:53:51 2018-09-24 02:53:51 2018-09-24 03:00:51</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_813_TC43</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:00:51 2018-09-24 03:00:51 2018-09-24 03:07:20</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC8A</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:07:20 2018-09-24 03:07:20 2018-09-24 03:12:48</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC8B</t>
+  </si>
+  <si>
+    <t>10.102.1.172 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:12:48 2018-09-24 03:12:48 2018-09-24 03:16:00</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC8C</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:16:00 2018-09-24 03:16:00 2018-09-24 03:22:08</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC19A</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:22:08 2018-09-24 03:22:08 2018-09-24 03:25:26</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC19B</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:25:26 2018-09-24 03:25:26 2018-09-24 03:27:44</t>
+  </si>
+  <si>
+    <t>UCAPPSSE_2926_TC19C</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:27:44 2018-09-24 03:27:44 2018-09-24 03:29:55</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC2</t>
+  </si>
+  <si>
+    <t>ACW30_VerifyPresenceStatusOfContactInEmailHeader;Hanoi, OneX00901 (OneX00901);Available on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:29:55 2018-09-24 03:29:55 2018-09-24 03:39:35</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC3</t>
+  </si>
+  <si>
+    <t>ACW30_ReplyWithIMFromOutlook;ALL;ConAll;Bye on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:39:35 2018-09-24 03:39:35 2018-09-24 03:56:17</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC6</t>
+  </si>
+  <si>
+    <t>ACW30_MakeNewAppointmentFromOutlook on 10.102.1.190 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 03:56:17 2018-09-24 03:56:17 2018-09-24 04:03:23</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC8</t>
+  </si>
+  <si>
+    <t>Phone does not slected logout option to logout phone, Logged out failed.</t>
+  </si>
+  <si>
+    <t>2018-09-24 04:03:23 2018-09-24 04:03:23 2018-09-24 04:05:56</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC9</t>
+  </si>
+  <si>
+    <t>ACW30_VerifyPresenceStatusOfContactInEmailHeader;Hanoi, OneX00902 (OneX00902);Available on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 04:05:56 2018-09-24 04:05:56 2018-09-24 04:13:15</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC10</t>
+  </si>
+  <si>
+    <t>2018-09-24 04:13:15 2018-09-24 04:13:15 2018-09-24 04:25:51</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC11</t>
+  </si>
+  <si>
+    <t>ACW30_RemoveOutlookContact;OneX00901 Hanoi on 10.128.224.51 is Fail
+TakeScreenshotDesktop;UCAPM_1342_TC11;_24-Sep-18_04-33-39_952_AM on null is Fail
 Cleanup on null is Fail
 verifyStatusThread Fail</t>
   </si>
   <si>
-    <t>2018-09-08 18:21:22 2018-09-08 18:21:22 2018-09-08 18:24:33</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC18B</t>
-  </si>
-  <si>
-    <t>Cannot connect to 10.102.1.184
-TakeScreenshotDesktop;UCAPPSSE_2926_TC18B;_08-Sep-18_06-24-52_808_PM on null is Fail
-Cleanup on null is Fail
-verifyStatusThread Fail</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:24:34 2018-09-08 18:24:34 2018-09-08 18:26:24</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC18C</t>
-  </si>
-  <si>
-    <t>Cannot connect to 10.102.1.184
-TakeScreenshotDesktop;UCAPPSSE_2926_TC18C;_08-Sep-18_06-26-43_540_PM on null is Fail
-Cleanup on null is Fail
-verifyStatusThread Fail</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:26:25 2018-09-08 18:26:24 2018-09-08 18:28:17</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_510_TC10</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:30:56 2018-09-08 18:30:56 2018-09-08 18:34:42</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_510_TC11</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:34:42 2018-09-08 18:34:42 2018-09-08 18:38:12</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_510_TC18</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:38:12 2018-09-08 18:38:12 2018-09-08 18:41:28</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_510_TC19</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:41:28 2018-09-08 18:41:28 2018-09-08 18:45:09</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_511_TC8</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:45:09 2018-09-08 18:45:09 2018-09-08 18:48:39</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_511_TC9</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:48:39 2018-09-08 18:48:39 2018-09-08 18:52:16</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_511_TC18</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:52:16 2018-09-08 18:52:16 2018-09-08 18:56:16</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_511_TC19</t>
-  </si>
-  <si>
-    <t>2018-09-08 18:56:16 2018-09-08 18:56:16 2018-09-08 19:00:25</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_610_TC7</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:00:25 2018-09-08 19:00:25 2018-09-08 19:05:00</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_626_TC11</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:05:00 2018-09-08 19:05:00 2018-09-08 19:08:31</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_626_TC12</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:08:31 2018-09-08 19:08:31 2018-09-08 19:12:21</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_519_TC1</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:12:21 2018-09-08 19:12:21 2018-09-08 19:18:14</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_519_TC2</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:18:14 2018-09-08 19:18:14 2018-09-08 19:23:23</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_519_TC3</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:23:23 2018-09-08 19:23:23 2018-09-08 19:31:00</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_519_TC4</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:31:00 2018-09-08 19:31:00 2018-09-08 19:38:06</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_519_TC5</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:38:06 2018-09-08 19:38:06 2018-09-08 19:44:33</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_519_TC6</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:44:33 2018-09-08 19:44:33 2018-09-08 19:50:19</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_519_TC7</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:50:19 2018-09-08 19:50:19 2018-09-08 19:58:56</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC32A</t>
-  </si>
-  <si>
-    <t>2018-09-08 19:58:56 2018-09-08 19:58:56 2018-09-08 20:02:34</t>
-  </si>
-  <si>
-    <t>UCAPM_1342_TC1</t>
-  </si>
-  <si>
-    <t>ACW30_MergeCall;1;2 on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-08 20:02:34 2018-09-08 20:02:34 2018-09-08 20:16:09</t>
-  </si>
-  <si>
-    <t>UCAPM_1342_TC7</t>
-  </si>
-  <si>
-    <t>ACW30_MakeCallFromOutlookContactCard;OneX00902 Hanoi;VIDEO on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-08 20:16:09 2018-09-08 20:16:09 2018-09-08 20:22:23</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2750_TC1</t>
-  </si>
-  <si>
-    <t>2018-09-08 20:24:56 2018-09-08 20:24:56 2018-09-08 20:31:42</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2750_TC66</t>
-  </si>
-  <si>
-    <t>2018-09-08 20:31:42 2018-09-08 20:31:42 2018-09-08 20:38:49</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2750_TC67</t>
-  </si>
-  <si>
-    <t>2018-09-08 20:38:49 2018-09-08 20:38:49 2018-09-08 20:43:00</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2750_TC72</t>
-  </si>
-  <si>
-    <t>2018-09-08 20:43:00 2018-09-08 20:43:00 2018-09-08 20:47:49</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2750_TC73</t>
-  </si>
-  <si>
-    <t>2018-09-08 20:47:49 2018-09-08 20:47:49 2018-09-08 20:56:45</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2745_TC2</t>
-  </si>
-  <si>
-    <t>2018-09-08 20:56:45 2018-09-08 20:56:45 2018-09-08 21:01:47</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2745_TC6</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:01:47 2018-09-08 21:01:47 2018-09-08 21:06:22</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2745_TC8</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:06:22 2018-09-08 21:06:22 2018-09-08 21:12:20</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2745_TC10</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:12:20 2018-09-08 21:12:20 2018-09-08 21:20:06</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2752_TC5</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:20:06 2018-09-08 21:20:06 2018-09-08 21:25:19</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC11</t>
-  </si>
-  <si>
-    <t>10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:27:59 2018-09-08 21:27:59 2018-09-08 21:32:15</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC12</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:32:15 2018-09-08 21:32:15 2018-09-08 21:36:06</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC13</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:36:06 2018-09-08 21:36:06 2018-09-08 21:40:29</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC15</t>
-  </si>
-  <si>
-    <t>ACW30_MergeCall;1;2 on 10.128.224.51 is Fail
-10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:40:29 2018-09-08 21:40:29 2018-09-08 21:46:53</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC16</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:46:53 2018-09-08 21:46:53 2018-09-08 21:52:43</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC17</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:52:43 2018-09-08 21:52:43 2018-09-08 21:57:56</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC18</t>
-  </si>
-  <si>
-    <t>2018-09-08 21:57:56 2018-09-08 21:57:56 2018-09-08 22:01:30</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC19</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:01:30 2018-09-08 22:01:30 2018-09-08 22:05:16</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC21</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:05:16 2018-09-08 22:05:16 2018-09-08 22:08:33</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC29</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:08:33 2018-09-08 22:08:33 2018-09-08 22:12:50</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC22</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:12:50 2018-09-08 22:12:50 2018-09-08 22:16:02</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC45</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:16:02 2018-09-08 22:16:02 2018-09-08 22:20:36</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC46</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:20:36 2018-09-08 22:20:36 2018-09-08 22:22:56</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC47</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:22:56 2018-09-08 22:22:56 2018-09-08 22:25:25</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC48</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:25:25 2018-09-08 22:25:25 2018-09-08 22:28:37</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC49</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:28:37 2018-09-08 22:28:37 2018-09-08 22:30:51</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC31</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:30:51 2018-09-08 22:30:51 2018-09-08 22:35:13</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC33</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:35:13 2018-09-08 22:35:13 2018-09-08 22:40:46</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC20</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:40:46 2018-09-08 22:40:46 2018-09-08 22:43:47</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC32</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:43:47 2018-09-08 22:43:47 2018-09-08 22:49:17</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC50</t>
-  </si>
-  <si>
-    <t>10.128.224.51 is Fail
-10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:49:17 2018-09-08 22:49:17 2018-09-08 22:59:41</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC34</t>
-  </si>
-  <si>
-    <t>bridgeLineAppearance -&gt; Bridge Line Appearance failed
-10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-08 22:59:41 2018-09-08 22:59:41 2018-09-08 23:06:07</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC35</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:06:07 2018-09-08 23:06:07 2018-09-08 23:11:59</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC36</t>
-  </si>
-  <si>
-    <t>bridgeLineAppearance -&gt; Bridge Line Appearance failed</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:11:59 2018-09-08 23:11:59 2018-09-08 23:18:05</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC37</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:18:05 2018-09-08 23:18:05 2018-09-08 23:24:03</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC38</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:24:03 2018-09-08 23:24:03 2018-09-08 23:30:59</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC39</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:30:59 2018-09-08 23:30:59 2018-09-08 23:36:41</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC40</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:36:41 2018-09-08 23:36:41 2018-09-08 23:43:13</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC41</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:43:13 2018-09-08 23:43:13 2018-09-08 23:48:48</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC42</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:48:48 2018-09-08 23:48:48 2018-09-08 23:57:17</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC43</t>
-  </si>
-  <si>
-    <t>2018-09-08 23:57:17 2018-09-08 23:57:17 2018-09-09 00:05:04</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC44</t>
-  </si>
-  <si>
-    <t>No incoming call to answer</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:05:04 2018-09-09 00:05:04 2018-09-09 00:12:53</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC51</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:12:53 2018-09-09 00:12:53 2018-09-09 00:17:27</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC52</t>
-  </si>
-  <si>
-    <t>No incoming call to bridge on call-appearance 1
-10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:17:27 2018-09-09 00:17:27 2018-09-09 00:22:58</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC53</t>
-  </si>
-  <si>
-    <t>No incoming call to bridge on call-appearance 1</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:22:58 2018-09-09 00:22:58 2018-09-09 00:29:21</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_13_TC12</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:29:21 2018-09-09 00:29:21 2018-09-09 00:33:36</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_13_TC24</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:33:36 2018-09-09 00:33:36 2018-09-09 00:37:48</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_13_TC25</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:37:48 2018-09-09 00:37:48 2018-09-09 00:45:26</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_626_TC23</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:45:26 2018-09-09 00:45:26 2018-09-09 00:49:34</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_626_TC24</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:49:34 2018-09-09 00:49:34 2018-09-09 00:56:22</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_795_TC37</t>
-  </si>
-  <si>
-    <t>PickupCall Fail
-Info : java.lang.NullPointerException
-10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 00:56:22 2018-09-09 00:56:22 2018-09-09 01:03:58</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_795_TC38</t>
-  </si>
-  <si>
-    <t>2018-09-09 01:03:58 2018-09-09 01:03:58 2018-09-09 01:09:44</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_545_TC53</t>
-  </si>
-  <si>
-    <t>2018-09-09 01:09:45 2018-09-09 01:09:44 2018-09-09 01:19:18</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_13_TC14</t>
-  </si>
-  <si>
-    <t>2018-09-09 01:19:18 2018-09-09 01:19:18 2018-09-09 01:24:33</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_510_TC12</t>
-  </si>
-  <si>
-    <t>2018-09-09 01:24:33 2018-09-09 01:24:33 2018-09-09 01:30:39</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_511_TC10</t>
-  </si>
-  <si>
-    <t>2018-09-09 01:30:39 2018-09-09 01:30:39 2018-09-09 01:36:21</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_545_TC40</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;ConB on 10.128.224.51 is Fail
-ACM30_SwitchToVOIPMode on 10.102.1.151 is Fail
-10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 01:36:21 2018-09-09 01:36:21 2018-09-09 01:51:00</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_584_TC11</t>
-  </si>
-  <si>
-    <t>10.102.1.151 is Fail
-ACM30_SwitchToVOIPMode on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 01:51:00 2018-09-09 01:51:00 2018-09-09 01:55:05</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2857_TC13</t>
-  </si>
-  <si>
-    <t>2018-09-09 01:55:05 2018-09-09 01:55:05 2018-09-09 02:01:43</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_545_TC7</t>
-  </si>
-  <si>
-    <t>2018-09-09 02:01:43 2018-09-09 02:01:43 2018-09-09 02:09:26</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_545_TC12</t>
-  </si>
-  <si>
-    <t>VerifyContactStatusMessageInContactDetailView Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 02:09:26 2018-09-09 02:09:26 2018-09-09 02:29:23</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_545_TC13</t>
-  </si>
-  <si>
-    <t>LeaveAllConversation Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 02:29:23 2018-09-09 02:29:23 2018-09-09 02:43:57</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_545_TC15</t>
-  </si>
-  <si>
-    <t>CheckContactPresenceState;OneX00921 Hanoi;On a call on 10.102.1.176 is Fail
-ACM30_ChangePresenceState;Automatic on 10.102.1.151 is Fail
-ACM30_SwitchToVOIPMode on 10.102.1.151 is Fail
-10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 02:43:57 2018-09-09 02:43:57 2018-09-09 02:51:05</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_545_TC42</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;UCAPPSSE_545_TC42 on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 02:51:05 2018-09-09 02:51:05 2018-09-09 03:27:36</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC10</t>
-  </si>
-  <si>
-    <t>10.102.1.151 is Fail
-ACM30_SwitchToVOIPMode on 10.102.1.151 is Fail
-verifyStatusThread Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 03:27:36 2018-09-09 03:27:36 2018-09-09 03:29:47</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC1</t>
-  </si>
-  <si>
-    <t>10.128.224.51 is Fail
-ACW30_SwitchToVOIPMode on 10.128.224.51 is Fail
-10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 03:29:47 2018-09-09 03:29:47 2018-09-09 03:36:02</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC2</t>
-  </si>
-  <si>
-    <t>2018-09-09 03:36:02 2018-09-09 03:36:02 2018-09-09 03:41:37</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC3</t>
-  </si>
-  <si>
-    <t>2018-09-09 03:41:37 2018-09-09 03:41:37 2018-09-09 03:46:27</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC4</t>
-  </si>
-  <si>
-    <t>2018-09-09 03:46:27 2018-09-09 03:46:27 2018-09-09 03:52:14</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC5</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;UCAPPSSE_518_TC5 on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 03:52:14 2018-09-09 03:52:14 2018-09-09 04:00:26</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC6</t>
-  </si>
-  <si>
-    <t>2018-09-09 04:00:26 2018-09-09 04:00:26 2018-09-09 04:07:07</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC7</t>
-  </si>
-  <si>
-    <t>2018-09-09 04:07:07 2018-09-09 04:07:07 2018-09-09 04:13:31</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC8</t>
-  </si>
-  <si>
-    <t>2018-09-09 04:13:31 2018-09-09 04:13:31 2018-09-09 04:20:20</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_518_TC9</t>
-  </si>
-  <si>
-    <t>ACM30_CheckContactPresenceState;OneX00921 Hanoi;Away on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 04:20:20 2018-09-09 04:20:20 2018-09-09 04:37:09</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_520_TC1</t>
-  </si>
-  <si>
-    <t>2018-09-09 04:37:09 2018-09-09 04:37:09 2018-09-09 04:42:26</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC1</t>
-  </si>
-  <si>
-    <t>AnswerCallWithAudio;1 on 10.102.1.176 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 04:43:17 2018-09-09 04:43:17 2018-09-09 04:49:28</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC2</t>
-  </si>
-  <si>
-    <t>ACW30_AnswerAudioCall;1 on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 04:49:28 2018-09-09 04:49:28 2018-09-09 04:56:05</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC3</t>
-  </si>
-  <si>
-    <t>2018-09-09 04:56:05 2018-09-09 04:56:05 2018-09-09 05:01:44</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC4</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:01:44 2018-09-09 05:01:44 2018-09-09 05:07:22</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC5</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:07:22 2018-09-09 05:07:22 2018-09-09 05:11:45</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC6</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:11:45 2018-09-09 05:11:45 2018-09-09 05:16:39</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC7</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:16:39 2018-09-09 05:16:39 2018-09-09 05:21:26</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC9</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:21:26 2018-09-09 05:21:26 2018-09-09 05:26:01</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC10</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:26:01 2018-09-09 05:26:01 2018-09-09 05:31:29</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC14</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:31:29 2018-09-09 05:31:29 2018-09-09 05:36:57</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC28</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:36:57 2018-09-09 05:36:57 2018-09-09 05:41:07</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_163_TC30</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:41:07 2018-09-09 05:41:07 2018-09-09 05:46:22</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC1</t>
-  </si>
-  <si>
-    <t>Cannot connect to 10.102.1.184
-verifyStatusThread Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:46:22 2018-09-09 05:46:22 2018-09-09 05:49:12</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC2</t>
-  </si>
-  <si>
-    <t>2018-09-09 05:49:12 2018-09-09 05:49:12 2018-09-09 06:02:02</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC4</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:02:02 2018-09-09 06:02:02 2018-09-09 06:05:55</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC14</t>
-  </si>
-  <si>
-    <t>Cannot connect to 10.102.1.184
-TakeScreenshotDesktop;UCAPPSSE_813_TC14;_09-Sep-18_06-06-07_799_AM on null is Fail
-Cleanup on null is Fail
-verifyStatusThread Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:05:55 2018-09-09 06:05:55 2018-09-09 06:06:28</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC23</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:06:28 2018-09-09 06:06:28 2018-09-09 06:07:01</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC32</t>
-  </si>
-  <si>
-    <t>Cannot connect to 10.102.1.184
-TakeScreenshotDesktop;UCAPPSSE_813_TC32;_09-Sep-18_06-07-12_509_AM on null is Fail
-Cleanup on null is Fail
-verifyStatusThread Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:07:01 2018-09-09 06:07:01 2018-09-09 06:07:32</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC16</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:07:32 2018-09-09 06:07:32 2018-09-09 06:13:21</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC17</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:13:21 2018-09-09 06:13:21 2018-09-09 06:20:44</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC3</t>
-  </si>
-  <si>
-    <t>SendIMsFromContactDetails Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:20:44 2018-09-09 06:20:44 2018-09-09 06:28:56</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC11</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;ConA on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:28:56 2018-09-09 06:28:56 2018-09-09 06:36:30</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC13</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:36:30 2018-09-09 06:36:30 2018-09-09 06:42:32</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC14</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:42:32 2018-09-09 06:42:32 2018-09-09 06:47:35</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC15</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:47:35 2018-09-09 06:47:35 2018-09-09 06:53:50</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC28</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:53:50 2018-09-09 06:53:50 2018-09-09 06:58:53</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC2</t>
-  </si>
-  <si>
-    <t>2018-09-09 06:58:53 2018-09-09 06:58:53 2018-09-09 07:03:22</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC5</t>
-  </si>
-  <si>
-    <t>ACW30_InitiateAMMFromSearchedContact;OneX00901 Hanoi;UCAPPSSE_2751_TC5;Hello;ldap on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:03:22 2018-09-09 07:03:22 2018-09-09 07:09:23</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC6</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;UCAPPSSE_2751_TC6 on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:09:23 2018-09-09 07:09:23 2018-09-09 07:15:17</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC7</t>
-  </si>
-  <si>
-    <t>ACW30_InitiateAMMFromSearchedContact;OneX00815 Hanoi;UCAPPSSE_2751_TC7;Hello;ldap on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:15:17 2018-09-09 07:15:17 2018-09-09 07:22:07</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC8</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;UCAPPSSE_2751_TC8 on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:22:07 2018-09-09 07:22:07 2018-09-09 07:27:27</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC9</t>
-  </si>
-  <si>
-    <t>ACW30_InitiateAMMFromSearchedContact;OneX00901 Hanoi;UCAPPSSE_2751_TC9;Hello;ldap on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:27:27 2018-09-09 07:27:27 2018-09-09 07:33:44</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC10</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;UCAPPSSE_2751_TC10 on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:33:44 2018-09-09 07:33:44 2018-09-09 07:40:29</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC12</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:40:29 2018-09-09 07:40:29 2018-09-09 07:45:13</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC23</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:45:13 2018-09-09 07:45:13 2018-09-09 07:49:18</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC24</t>
-  </si>
-  <si>
-    <t>VerifyCallLog Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:49:18 2018-09-09 07:49:18 2018-09-09 07:56:17</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC25</t>
-  </si>
-  <si>
-    <t>ACW30_VerifyContactPictureOnCallAppearance;user1Image on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 07:56:17 2018-09-09 07:56:17 2018-09-09 08:02:48</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC27</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:02:48 2018-09-09 08:02:48 2018-09-09 08:10:47</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2751_TC29</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:10:47 2018-09-09 08:10:47 2018-09-09 08:18:44</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2745_TC3</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:18:44 2018-09-09 08:18:44 2018-09-09 08:23:46</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2745_TC7</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:23:46 2018-09-09 08:23:46 2018-09-09 08:28:48</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2745_TC9</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:28:48 2018-09-09 08:28:48 2018-09-09 08:35:03</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2752_TC13</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:35:03 2018-09-09 08:35:03 2018-09-09 08:39:08</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2752_TC15</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:39:08 2018-09-09 08:39:08 2018-09-09 08:46:26</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2752_TC17</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:46:26 2018-09-09 08:46:26 2018-09-09 08:51:43</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2752_TC19</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:51:43 2018-09-09 08:51:43 2018-09-09 08:58:55</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2752_TC20</t>
-  </si>
-  <si>
-    <t>2018-09-09 08:58:55 2018-09-09 08:58:55 2018-09-09 09:03:53</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_501_TC3</t>
-  </si>
-  <si>
-    <t>2018-09-09 09:03:53 2018-09-09 09:03:53 2018-09-09 09:17:54</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_501_TC13</t>
-  </si>
-  <si>
-    <t>2018-09-09 09:17:54 2018-09-09 09:17:54 2018-09-09 09:25:37</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_501_TC11</t>
-  </si>
-  <si>
-    <t>JoinScopiaConferenceAsTEModeWithPOM;namedUser;OneX00902;7984449900900;https://esg3202.tma.com.vn:8443/portal/tenants/default/;900;audiovideo; on 10.102.1.176 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 09:25:37 2018-09-09 09:25:37 2018-09-09 09:31:58</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_501_TC15</t>
-  </si>
-  <si>
-    <t>2018-09-09 09:31:58 2018-09-09 09:31:58 2018-09-09 09:39:31</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2741_TC3</t>
-  </si>
-  <si>
-    <t>ACW30_JoinScopiaConferenceFromWebPortal;namedUser;;;https://esg3202.tma.com.vn:8443/portal/tenants/default/;audioVideoPresentation; on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 09:39:31 2018-09-09 09:39:31 2018-09-09 09:44:22</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2741_TC4</t>
-  </si>
-  <si>
-    <t>2018-09-09 09:44:22 2018-09-09 09:44:22 2018-09-09 09:49:59</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2741_TC6</t>
-  </si>
-  <si>
-    <t>ACW30_JoinScopiaConferenceFromWebPortal;namedUser;;7984449900901;https://esg3202.tma.com.vn:8443/portal/tenants/default/;audioVideoPresentation;901 on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 09:49:59 2018-09-09 09:49:59 2018-09-09 09:57:18</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2741_TC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifyStatusThread Fail
-verifyStatusThread is timeout after 5 minute(s) </t>
-  </si>
-  <si>
-    <t>2018-09-09 09:57:18 2018-09-09 09:57:18 2018-09-09 10:03:38</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2741_TC9</t>
-  </si>
-  <si>
-    <t>verifyStatusThread Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:03:38 2018-09-09 10:03:38 2018-09-09 10:07:51</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2741_TC10</t>
-  </si>
-  <si>
-    <t>ACM30_JoinScopiaConferenceFromWebPortal;namedUser;;;https://esg3202.tma.com.vn:8443/portal/tenants/default/;audioVideoPresentation; on 10.102.1.151 is Fail
-TakeScreenshotDesktop;UCAPPSSE_2741_TC10;_09-Sep-18_10-12-21_510_AM on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:07:51 2018-09-09 10:07:51 2018-09-09 10:20:14</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2747_TC20</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:20:14 2018-09-09 10:20:14 2018-09-09 10:24:31</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2842_TC1</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:24:31 2018-09-09 10:24:31 2018-09-09 10:28:26</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2842_TC4</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:28:26 2018-09-09 10:28:26 2018-09-09 10:31:21</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2842_TC5</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:31:21 2018-09-09 10:31:21 2018-09-09 10:36:36</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC8</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:36:37 2018-09-09 10:36:37 2018-09-09 10:43:06</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC9</t>
-  </si>
-  <si>
-    <t>OneX_OpenHyperlink;OneX00900 Hanoi, OneX00903 Hanoi, OneX00901 Hanoi on 10.102.1.191 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:43:06 2018-09-09 10:43:06 2018-09-09 10:53:30</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC10</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;2nd on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 10:53:30 2018-09-09 10:53:30 2018-09-09 11:06:15</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC15</t>
-  </si>
-  <si>
-    <t>2018-09-09 11:06:15 2018-09-09 11:06:15 2018-09-09 11:14:32</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC16</t>
-  </si>
-  <si>
-    <t>OpenConversation;OneX00881 Hanoi on 10.102.1.176 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 11:14:32 2018-09-09 11:14:32 2018-09-09 11:19:53</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC17</t>
-  </si>
-  <si>
-    <t>ACW30_InitiateAMMFromSearchedContact;OneX00901 Hanoi;UCAPPSSE_813_TC17;initiate msg;Ldap on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 11:19:53 2018-09-09 11:19:53 2018-09-09 11:26:09</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC19</t>
-  </si>
-  <si>
-    <t>ACM30_OpenAttachment;OneX00901;Audio on 10.102.1.151 is Fail
-TakeScreenshotDesktop;UCAPPSSE_813_TC19;_09-Sep-18_11-33-26_641_AM on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 11:26:09 2018-09-09 11:26:09 2018-09-09 11:41:29</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC70</t>
-  </si>
-  <si>
-    <t>ACW30_InitiateAMMFromSearchedContact;OneX00881 Hanoi;UCAPPSSE_813_TC70;initiate msg;Ldap on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 11:41:29 2018-09-09 11:41:29 2018-09-09 11:47:38</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC71</t>
-  </si>
-  <si>
-    <t>ACM30_OpenConversation;OneX00881 Hanoi on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 11:47:38 2018-09-09 11:47:38 2018-09-09 11:52:14</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC72</t>
-  </si>
-  <si>
-    <t>OneX_OpenAttachment;OneX00900 Hanoi;Audio;hanoi.onex00881;A123456a on 10.102.1.191 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 11:52:14 2018-09-09 11:52:14 2018-09-09 11:58:50</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC20</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;2nd conference on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 11:58:50 2018-09-09 11:58:50 2018-09-09 12:11:28</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC22</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;New Conversation on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 12:11:28 2018-09-09 12:11:28 2018-09-09 12:18:33</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC25</t>
-  </si>
-  <si>
-    <t>ACW30_OpenAttachment;OneX00900;Video on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 12:18:33 2018-09-09 12:18:33 2018-09-09 12:27:48</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC28</t>
-  </si>
-  <si>
-    <t>2018-09-09 12:27:48 2018-09-09 12:27:48 2018-09-09 12:38:06</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC29</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;Conversation B on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 12:38:06 2018-09-09 12:38:06 2018-09-09 12:49:05</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC31</t>
-  </si>
-  <si>
-    <t>ACM30_AddTextToAMM;overMaximum on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 12:49:05 2018-09-09 12:49:05 2018-09-09 13:00:41</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC34</t>
-  </si>
-  <si>
-    <t>ACW30_OpenConversation;OneX00881 Hanoi on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:00:41 2018-09-09 13:00:41 2018-09-09 13:06:19</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC37</t>
-  </si>
-  <si>
-    <t>OpenAttachment Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:06:19 2018-09-09 13:06:19 2018-09-09 13:17:56</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC38</t>
-  </si>
-  <si>
-    <t>ACW30_InitiateAMMFromSearchedContact;OneX00881 Hanoi;Conversation C;Hi userC;LDAP on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:17:56 2018-09-09 13:17:56 2018-09-09 13:30:48</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC40</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:30:48 2018-09-09 13:30:48 2018-09-09 13:37:58</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_813_TC43</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:37:58 2018-09-09 13:37:58 2018-09-09 13:50:32</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC8A</t>
-  </si>
-  <si>
-    <t>Cannot connect to 10.102.1.184</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:50:32 2018-09-09 13:50:32 2018-09-09 13:52:25</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC8B</t>
-  </si>
-  <si>
-    <t>ClearHistory; on 10.102.1.176 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:52:25 2018-09-09 13:52:25 2018-09-09 13:58:05</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC8C</t>
-  </si>
-  <si>
-    <t>Cannot connect to 10.102.1.184
-TakeScreenshotDesktop;UCAPPSSE_2926_TC8C;_09-Sep-18_01-58-18_951_PM on null is Fail
-TakeScreenshotDesktop;UCAPPSSE_2926_TC8C;_09-Sep-18_01-58-18_978_PM on null is Fail
-ACW30_CleanUp on null is Fail
-ACM30_CleanUp on null is Fail
-verifyStatusThread Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:58:05 2018-09-09 13:58:05 2018-09-09 13:58:20</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC19A</t>
-  </si>
-  <si>
-    <t>2018-09-09 13:58:20 2018-09-09 13:58:20 2018-09-09 14:04:56</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC19B</t>
-  </si>
-  <si>
-    <t>2018-09-09 14:04:56 2018-09-09 14:04:56 2018-09-09 14:11:51</t>
-  </si>
-  <si>
-    <t>UCAPPSSE_2926_TC19C</t>
-  </si>
-  <si>
-    <t>2018-09-09 14:11:51 2018-09-09 14:11:51 2018-09-09 14:18:37</t>
-  </si>
-  <si>
-    <t>UCAPM_1342_TC2</t>
-  </si>
-  <si>
-    <t>2018-09-09 14:18:37 2018-09-09 14:18:37 2018-09-09 14:27:19</t>
-  </si>
-  <si>
-    <t>UCAPM_1342_TC3</t>
-  </si>
-  <si>
-    <t>2018-09-09 14:27:19 2018-09-09 14:27:19 2018-09-09 14:32:34</t>
-  </si>
-  <si>
-    <t>UCAPM_1342_TC6</t>
-  </si>
-  <si>
-    <t>2018-09-09 14:32:34 2018-09-09 14:32:34 2018-09-09 14:49:52</t>
-  </si>
-  <si>
-    <t>UCAPM_1342_TC8</t>
-  </si>
-  <si>
-    <t>ACW30_AddReceiversToEmailOutlook;hanoi.onex00901@tma.com.vn&gt;&gt;hanoi.onex00902@tma.com.vn;toList on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 14:49:52 2018-09-09 14:49:52 2018-09-09 14:58:47</t>
-  </si>
-  <si>
-    <t>UCAPM_1342_TC9</t>
-  </si>
-  <si>
-    <t>ACW30_AddReceiversToEmailOutlook;hanoi.onex00901@tma.com.vn&gt;&gt;hanoi.onex00931@tma.com.vn;toList on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 14:58:47 2018-09-09 14:58:47 2018-09-09 15:05:22</t>
+    <t>2018-09-24 04:25:51 2018-09-24 04:25:51 2018-09-24 04:36:31</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC12</t>
+  </si>
+  <si>
+    <t>ACW30_VerifyPresenceStatusOfContactInEmailHeader;Hanoi, OneX00931 (OneX00931);Offline on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 04:36:31 2018-09-24 04:36:31 2018-09-24 04:47:54</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC13</t>
+  </si>
+  <si>
+    <t>10.102.1.190 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 04:47:54 2018-09-24 04:47:54 2018-09-24 04:53:23</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC14</t>
+  </si>
+  <si>
+    <t>ACW30_RemoveOutlookContact;OneX00990 Hanoi on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 04:53:23 2018-09-24 04:53:23 2018-09-24 05:02:32</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC15</t>
+  </si>
+  <si>
+    <t>2018-09-24 05:02:32 2018-09-24 05:02:32 2018-09-24 05:10:49</t>
+  </si>
+  <si>
+    <t>UCAPM_1342_TC16</t>
+  </si>
+  <si>
+    <t>2018-09-24 05:10:49 2018-09-24 05:10:49 2018-09-24 05:22:54</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC2</t>
   </si>
   <si>
-    <t>2018-09-09 15:07:57 2018-09-09 15:07:57 2018-09-09 15:15:03</t>
+    <t>2018-09-24 05:26:15 2018-09-24 05:26:15 2018-09-24 05:34:09</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC3</t>
   </si>
   <si>
-    <t>2018-09-09 15:15:03 2018-09-09 15:15:03 2018-09-09 15:23:14</t>
+    <t>2018-09-24 05:34:09 2018-09-24 05:34:09 2018-09-24 05:42:43</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC4</t>
   </si>
   <si>
-    <t>2018-09-09 15:23:14 2018-09-09 15:23:14 2018-09-09 15:28:44</t>
+    <t>2018-09-24 05:42:43 2018-09-24 05:42:43 2018-09-24 05:48:24</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC6</t>
   </si>
   <si>
-    <t>2018-09-09 15:28:44 2018-09-09 15:28:44 2018-09-09 15:36:52</t>
+    <t>2018-09-24 05:48:24 2018-09-24 05:48:24 2018-09-24 05:56:46</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC17</t>
   </si>
   <si>
-    <t>2018-09-09 15:36:52 2018-09-09 15:36:52 2018-09-09 15:42:43</t>
+    <t>2018-09-24 05:56:46 2018-09-24 05:56:46 2018-09-24 06:02:58</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC18</t>
   </si>
   <si>
-    <t>2018-09-09 15:42:43 2018-09-09 15:42:43 2018-09-09 15:47:13</t>
+    <t>2018-09-24 06:02:58 2018-09-24 06:02:58 2018-09-24 06:07:29</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC19</t>
   </si>
   <si>
-    <t>2018-09-09 15:47:13 2018-09-09 15:47:13 2018-09-09 15:53:30</t>
+    <t>2018-09-24 06:07:29 2018-09-24 06:07:29 2018-09-24 06:13:55</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC20</t>
   </si>
   <si>
-    <t>2018-09-09 15:53:30 2018-09-09 15:53:30 2018-09-09 15:57:59</t>
+    <t>2018-09-24 06:13:55 2018-09-24 06:13:55 2018-09-24 06:18:32</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC21</t>
   </si>
   <si>
-    <t>2018-09-09 15:58:00 2018-09-09 15:57:59 2018-09-09 16:01:47</t>
+    <t>2018-09-24 06:18:32 2018-09-24 06:18:32 2018-09-24 06:22:20</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC58</t>
   </si>
   <si>
-    <t>ACW30_EndCall;1 on 10.128.224.51 is Fail
-10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 16:01:47 2018-09-09 16:01:47 2018-09-09 16:12:14</t>
+    <t>2018-09-24 06:22:20 2018-09-24 06:22:20 2018-09-24 06:26:16</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC59</t>
   </si>
   <si>
-    <t>ACW30_VerifyLecturer;2;yes on 10.128.224.51 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 16:12:15 2018-09-09 16:12:14 2018-09-09 16:17:34</t>
+    <t>2018-09-24 06:26:16 2018-09-24 06:26:16 2018-09-24 06:31:39</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC65</t>
@@ -1773,179 +1606,192 @@
 10.102.1.176 is Fail</t>
   </si>
   <si>
-    <t>2018-09-09 16:17:34 2018-09-09 16:17:34 2018-09-09 16:23:03</t>
+    <t>2018-09-24 06:31:39 2018-09-24 06:31:39 2018-09-24 06:37:16</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC74</t>
   </si>
   <si>
-    <t>2018-09-09 16:23:03 2018-09-09 16:23:03 2018-09-09 16:30:00</t>
+    <t>TurnOffLectureMode Fail
+verifyStatusThread Fail
+10.102.1.176 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 06:37:16 2018-09-24 06:37:16 2018-09-24 06:45:07</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC75</t>
   </si>
   <si>
-    <t>2018-09-09 16:30:00 2018-09-09 16:30:00 2018-09-09 16:39:00</t>
+    <t>2018-09-24 06:45:07 2018-09-24 06:45:07 2018-09-24 06:49:35</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC76</t>
   </si>
   <si>
-    <t>2018-09-09 16:39:00 2018-09-09 16:39:00 2018-09-09 16:44:47</t>
+    <t>2018-09-24 06:49:35 2018-09-24 06:49:35 2018-09-24 06:53:47</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC5</t>
   </si>
   <si>
-    <t>2018-09-09 16:44:47 2018-09-09 16:44:47 2018-09-09 16:50:17</t>
+    <t>2018-09-24 06:53:47 2018-09-24 06:53:47 2018-09-24 06:56:56</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC12</t>
   </si>
   <si>
-    <t>2018-09-09 16:50:17 2018-09-09 16:50:17 2018-09-09 17:01:39</t>
+    <t>2018-09-24 06:56:56 2018-09-24 06:56:56 2018-09-24 07:01:10</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC11</t>
   </si>
   <si>
-    <t>2018-09-09 17:01:39 2018-09-09 17:01:39 2018-09-09 17:07:33</t>
+    <t>ACW30_RefuseRequest on 10.128.224.51 is Fail
+10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 07:01:10 2018-09-24 07:01:10 2018-09-24 07:11:27</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC13</t>
   </si>
   <si>
-    <t>2018-09-09 17:07:33 2018-09-09 17:07:33 2018-09-09 17:13:15</t>
+    <t>2018-09-24 07:11:27 2018-09-24 07:11:27 2018-09-24 07:14:24</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC92</t>
   </si>
   <si>
-    <t>2018-09-09 17:13:15 2018-09-09 17:13:15 2018-09-09 17:20:26</t>
+    <t>2018-09-24 07:14:24 2018-09-24 07:14:24 2018-09-24 07:17:26</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC95</t>
   </si>
   <si>
-    <t>2018-09-09 17:20:26 2018-09-09 17:20:26 2018-09-09 17:26:43</t>
+    <t>ACM30_BecomeModerator;00900 on 10.102.1.151 is Fail
+TakeScreenshotDesktop;UCAPPSSE_2750_TC95;_24-Sep-18_07-18-56_465_AM on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 07:17:26 2018-09-24 07:17:26 2018-09-24 07:25:18</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC98</t>
   </si>
   <si>
-    <t>2018-09-09 17:26:43 2018-09-09 17:26:43 2018-09-09 17:31:47</t>
+    <t>ACW30_BecomeModerator;00900 on 10.128.224.51 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 07:25:18 2018-09-24 07:25:18 2018-09-24 07:28:17</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC80</t>
   </si>
   <si>
-    <t>2018-09-09 17:31:47 2018-09-09 17:31:47 2018-09-09 17:37:53</t>
+    <t>JoinScopiaConferenceFromWebPortal Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 07:28:17 2018-09-24 07:28:17 2018-09-24 07:35:02</t>
   </si>
   <si>
     <t>UCAPPSSE_2750_TC81</t>
   </si>
   <si>
-    <t>MuteParticipant;1;Video on 10.102.1.176 is Fail
+    <t>UnMuteCall on 10.102.1.176 is Fail
 10.102.1.176 is Fail</t>
   </si>
   <si>
-    <t>2018-09-09 17:37:53 2018-09-09 17:37:53 2018-09-09 17:42:32</t>
+    <t>2018-09-24 07:35:02 2018-09-24 07:35:02 2018-09-24 07:37:27</t>
   </si>
   <si>
     <t>UCAPPSSE_2744_TC1</t>
   </si>
   <si>
-    <t>2018-09-09 17:42:32 2018-09-09 17:42:32 2018-09-09 17:47:49</t>
+    <t>ACM30_Share;fullScreen on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 07:37:27 2018-09-24 07:37:27 2018-09-24 07:43:47</t>
   </si>
   <si>
     <t>UCAPPSSE_2744_TC2</t>
   </si>
   <si>
-    <t>2018-09-09 17:47:49 2018-09-09 17:47:49 2018-09-09 17:53:48</t>
+    <t>2018-09-24 07:43:47 2018-09-24 07:43:47 2018-09-24 07:47:07</t>
   </si>
   <si>
     <t>UCAPPSSE_2744_TC9</t>
   </si>
   <si>
-    <t>2018-09-09 17:53:48 2018-09-09 17:53:48 2018-09-09 18:02:33</t>
+    <t>2018-09-24 07:47:07 2018-09-24 07:47:07 2018-09-24 07:55:55</t>
   </si>
   <si>
     <t>UCAPPSSE_2745_TC4</t>
   </si>
   <si>
-    <t>2018-09-09 18:02:33 2018-09-09 18:02:33 2018-09-09 18:07:03</t>
+    <t>2018-09-24 07:55:55 2018-09-24 07:55:55 2018-09-24 08:00:27</t>
   </si>
   <si>
     <t>UCAPPSSE_2752_TC14</t>
   </si>
   <si>
-    <t>ACM30_DropConference on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 18:07:03 2018-09-09 18:07:03 2018-09-09 18:13:47</t>
+    <t>2018-09-24 08:00:27 2018-09-24 08:00:27 2018-09-24 08:03:56</t>
   </si>
   <si>
     <t>UCAPPSSE_2752_TC16</t>
   </si>
   <si>
-    <t>VerifyCamera Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 18:13:47 2018-09-09 18:13:47 2018-09-09 18:19:06</t>
+    <t>2018-09-24 08:03:56 2018-09-24 08:03:56 2018-09-24 08:06:57</t>
   </si>
   <si>
     <t>UCAPPSSE_2752_TC18</t>
   </si>
   <si>
-    <t>2018-09-09 18:19:06 2018-09-09 18:19:06 2018-09-09 18:25:54</t>
+    <t>2018-09-24 08:06:57 2018-09-24 08:06:57 2018-09-24 08:13:19</t>
   </si>
   <si>
     <t>UCAPPSSE_2752_TC7</t>
   </si>
   <si>
-    <t>2018-09-09 18:25:54 2018-09-09 18:25:54 2018-09-09 18:30:56</t>
+    <t>2018-09-24 08:13:19 2018-09-24 08:13:19 2018-09-24 08:15:53</t>
   </si>
   <si>
     <t>UCAPPSSE_2752_TC9</t>
   </si>
   <si>
-    <t>2018-09-09 18:30:56 2018-09-09 18:30:56 2018-09-09 18:38:37</t>
+    <t>2018-09-24 08:15:53 2018-09-24 08:15:53 2018-09-24 08:23:46</t>
   </si>
   <si>
     <t>UCAPPSSE_2741_TC1</t>
   </si>
   <si>
-    <t>2018-09-09 18:38:37 2018-09-09 18:38:37 2018-09-09 18:42:41</t>
+    <t>2018-09-24 08:23:46 2018-09-24 08:23:46 2018-09-24 08:27:52</t>
   </si>
   <si>
     <t>UCAPPSSE_2741_TC2</t>
   </si>
   <si>
-    <t>2018-09-09 18:42:41 2018-09-09 18:42:41 2018-09-09 18:49:38</t>
+    <t>2018-09-24 08:27:52 2018-09-24 08:27:52 2018-09-24 08:35:02</t>
   </si>
   <si>
     <t>UCAPPSSE_2741_TC5</t>
   </si>
   <si>
-    <t>2018-09-09 18:49:38 2018-09-09 18:49:38 2018-09-09 18:55:37</t>
+    <t>2018-09-24 08:35:02 2018-09-24 08:35:02 2018-09-24 08:41:00</t>
   </si>
   <si>
     <t>UCAPPSSE_2741_TC8</t>
   </si>
   <si>
-    <t>ACM30_JoinScopiaConferenceFromWebPortal;namedUser;;;https://softclient-auto-iview.hcm.com/portal;presentationOnly; on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 18:55:37 2018-09-09 18:55:37 2018-09-09 18:58:40</t>
+    <t>2018-09-24 08:41:00 2018-09-24 08:41:00 2018-09-24 08:45:17</t>
   </si>
   <si>
     <t>UCAPPSSE_2746_TC4</t>
   </si>
   <si>
-    <t>ACM30_JoinScopiaConferenceFromWebPortal;namedUser;;;;audioVideoPresentation; on 10.102.1.151 is Fail</t>
-  </si>
-  <si>
-    <t>2018-09-09 18:58:40 2018-09-09 18:58:40 2018-09-09 19:01:42</t>
+    <t>ACM30_VerifyRTPTransport;UDP on 10.102.1.151 is Fail</t>
+  </si>
+  <si>
+    <t>2018-09-24 08:45:17 2018-09-24 08:45:17 2018-09-24 08:49:46</t>
   </si>
   <si>
     <t>UCAPPSSE_2842_TC2</t>
@@ -1954,13 +1800,13 @@
     <t>ACW30_VerifyReceivedVideoResolution;1280x720 on 10.128.224.51 is Fail</t>
   </si>
   <si>
-    <t>2018-09-09 19:01:42 2018-09-09 19:01:42 2018-09-09 19:08:39</t>
+    <t>2018-09-24 08:49:46 2018-09-24 08:49:46 2018-09-24 08:56:50</t>
   </si>
   <si>
     <t>UCAPPSSE_2842_TC3</t>
   </si>
   <si>
-    <t>2018-09-09 19:08:40 2018-09-09 19:08:39 2018-09-09 19:13:49</t>
+    <t>2018-09-24 08:56:50 2018-09-24 08:56:50 2018-09-24 09:00:01</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2349,13 +2195,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2363,16 +2209,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2380,16 +2226,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2397,16 +2243,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2414,16 +2260,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2431,16 +2277,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2448,16 +2294,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2465,16 +2311,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2482,16 +2328,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2499,16 +2345,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2516,16 +2362,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2533,16 +2379,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2550,16 +2396,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2567,16 +2413,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2584,16 +2430,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2601,16 +2447,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2618,16 +2464,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2635,16 +2481,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2652,16 +2498,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2669,16 +2515,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2686,16 +2532,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2703,16 +2549,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2720,16 +2566,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2737,16 +2583,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2754,16 +2600,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2771,16 +2617,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2788,16 +2634,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2805,16 +2651,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2822,16 +2668,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2839,16 +2685,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2856,16 +2702,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2873,16 +2719,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2890,16 +2736,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2907,16 +2753,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2924,16 +2770,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2941,16 +2787,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2958,16 +2804,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2975,16 +2821,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2992,16 +2838,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3009,16 +2855,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3026,16 +2872,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3043,16 +2889,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3060,16 +2906,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3077,16 +2923,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3094,16 +2940,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3111,16 +2957,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3128,16 +2974,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3145,16 +2991,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3162,16 +3008,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3179,16 +3025,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3196,16 +3042,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3213,16 +3059,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3230,16 +3076,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3247,16 +3093,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3264,16 +3110,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3281,16 +3127,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3298,16 +3144,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3315,16 +3161,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3332,16 +3178,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3349,16 +3195,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3366,16 +3212,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3383,16 +3229,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3400,16 +3246,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3417,16 +3263,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3434,16 +3280,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3451,16 +3297,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3468,16 +3314,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3485,16 +3331,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3502,16 +3348,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3519,16 +3365,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3536,16 +3382,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3553,16 +3399,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3570,16 +3416,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3587,16 +3433,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3604,16 +3450,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3621,16 +3467,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3638,16 +3484,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3655,16 +3501,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3672,16 +3518,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3689,16 +3535,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3706,16 +3552,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3723,16 +3569,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3740,16 +3586,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3757,16 +3603,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3774,16 +3620,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3791,16 +3637,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3808,16 +3654,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3825,16 +3671,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3842,16 +3688,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3859,16 +3705,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3876,16 +3722,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3893,16 +3739,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="E94" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3910,16 +3756,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3927,16 +3773,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3944,16 +3790,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3961,16 +3807,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="E98" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3978,16 +3824,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="E99" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3995,16 +3841,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
         <v>216</v>
       </c>
-      <c r="C100" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" t="s">
-        <v>214</v>
-      </c>
       <c r="E100" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4012,16 +3858,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="E101" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4029,16 +3875,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4046,16 +3892,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E103" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4063,16 +3909,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E104" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4080,16 +3926,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="E105" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4097,16 +3943,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E106" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4114,16 +3960,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="E107" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4131,16 +3977,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E108" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4148,16 +3994,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="E109" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4165,16 +4011,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="E110" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4182,16 +4028,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4199,16 +4045,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4216,16 +4062,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E113" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4233,16 +4079,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="E114" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4250,16 +4096,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="E115" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4267,16 +4113,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4284,16 +4130,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E117" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4301,16 +4147,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E118" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4318,16 +4164,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="E119" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4335,16 +4181,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4352,16 +4198,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
       <c r="E121" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4369,16 +4215,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4386,16 +4232,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4403,16 +4249,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4420,16 +4266,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4437,16 +4283,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4454,16 +4300,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4471,16 +4317,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4488,16 +4334,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4505,16 +4351,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4522,16 +4368,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="E131" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4539,16 +4385,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="E132" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4556,16 +4402,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E133" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4573,16 +4419,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E134" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4590,16 +4436,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4607,16 +4453,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="E136" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4624,16 +4470,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4641,16 +4487,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4658,16 +4504,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4675,16 +4521,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4692,16 +4538,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4709,16 +4555,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4726,13 +4572,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
         <v>319</v>
@@ -4746,13 +4592,13 @@
         <v>320</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
         <v>321</v>
-      </c>
-      <c r="E144" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4760,16 +4606,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>322</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
         <v>323</v>
-      </c>
-      <c r="C145" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4777,16 +4623,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
         <v>325</v>
-      </c>
-      <c r="C146" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4794,13 +4640,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
         <v>327</v>
-      </c>
-      <c r="C147" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" t="s">
-        <v>7</v>
       </c>
       <c r="E147" t="s">
         <v>328</v>
@@ -4814,10 +4660,10 @@
         <v>329</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
         <v>330</v>
@@ -4831,10 +4677,10 @@
         <v>331</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
         <v>332</v>
@@ -4848,10 +4694,10 @@
         <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
         <v>334</v>
@@ -4865,10 +4711,10 @@
         <v>335</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
         <v>336</v>
@@ -4882,10 +4728,10 @@
         <v>337</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
         <v>338</v>
@@ -4902,10 +4748,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>340</v>
       </c>
       <c r="E153" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4913,16 +4759,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="E154" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4930,16 +4776,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C155" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E155" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4947,16 +4793,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>340</v>
       </c>
       <c r="E156" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4964,16 +4810,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>344</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4981,16 +4827,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C158" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4998,16 +4844,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E159" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5015,16 +4861,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C160" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5032,16 +4878,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5049,16 +4895,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E162" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5066,13 +4912,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C163" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
         <v>364</v>
@@ -5086,7 +4932,7 @@
         <v>365</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
         <v>366</v>
@@ -5103,10 +4949,10 @@
         <v>368</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
         <v>369</v>
@@ -5120,10 +4966,10 @@
         <v>370</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
         <v>371</v>
@@ -5137,10 +4983,10 @@
         <v>372</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
         <v>373</v>
@@ -5157,10 +5003,10 @@
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
       <c r="E168" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5168,16 +5014,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>378</v>
       </c>
       <c r="E169" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5185,16 +5031,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C170" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E170" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5202,16 +5048,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E171" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5219,16 +5065,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C172" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E172" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5236,16 +5082,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5253,16 +5099,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C174" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E174" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5270,13 +5116,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
         <v>395</v>
@@ -5290,10 +5136,10 @@
         <v>396</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
         <v>397</v>
@@ -5307,10 +5153,10 @@
         <v>398</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
         <v>399</v>
@@ -5324,7 +5170,7 @@
         <v>400</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
         <v>401</v>
@@ -5341,13 +5187,13 @@
         <v>403</v>
       </c>
       <c r="C179" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D179" t="s">
+        <v>401</v>
+      </c>
+      <c r="E179" t="s">
         <v>404</v>
-      </c>
-      <c r="E179" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5355,13 +5201,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>405</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
         <v>406</v>
-      </c>
-      <c r="C180" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" t="s">
-        <v>7</v>
       </c>
       <c r="E180" t="s">
         <v>407</v>
@@ -5378,10 +5224,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
       <c r="E181" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5389,16 +5235,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="E182" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5406,16 +5252,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>415</v>
       </c>
       <c r="E183" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5423,16 +5269,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="E184" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5440,16 +5286,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>421</v>
       </c>
       <c r="E185" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5457,16 +5303,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>424</v>
       </c>
       <c r="E186" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5474,16 +5320,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5491,16 +5337,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5508,16 +5354,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5525,16 +5371,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="E190" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5542,16 +5388,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="E191" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5559,16 +5405,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5576,16 +5422,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="E193" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5593,16 +5439,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C194" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="E194" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5610,16 +5456,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="E195" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5627,16 +5473,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E196" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5644,16 +5490,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C197" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5661,16 +5507,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C198" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="E198" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5678,16 +5524,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C199" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>450</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5695,16 +5541,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="E200" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5712,16 +5558,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5729,16 +5575,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E202" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5746,16 +5592,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E203" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5763,16 +5609,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E204" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5780,16 +5626,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E205" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5797,16 +5643,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C206" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E206" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5814,16 +5660,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="E207" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5831,16 +5677,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C208" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E208" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5848,16 +5694,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E209" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5865,16 +5711,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C210" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5882,16 +5728,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C211" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E211" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5899,16 +5745,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E212" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5916,16 +5762,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C213" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E213" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5933,16 +5779,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C214" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D214" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E214" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5950,16 +5796,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C215" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>492</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5967,16 +5813,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C216" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5984,16 +5830,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E217" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6001,13 +5847,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C218" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
         <v>501</v>
@@ -6021,13 +5867,13 @@
         <v>502</v>
       </c>
       <c r="C219" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" t="s">
         <v>503</v>
-      </c>
-      <c r="E219" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6035,16 +5881,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>504</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" t="s">
         <v>505</v>
-      </c>
-      <c r="C220" t="s">
-        <v>26</v>
-      </c>
-      <c r="D220" t="s">
-        <v>506</v>
-      </c>
-      <c r="E220" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6052,16 +5898,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C221" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>509</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6069,16 +5915,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C222" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>512</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6086,16 +5932,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6103,16 +5949,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C224" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6120,16 +5966,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>519</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6137,16 +5983,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>522</v>
+        <v>87</v>
       </c>
       <c r="E226" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6154,16 +6000,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>525</v>
+        <v>11</v>
       </c>
       <c r="E227" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6171,16 +6017,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>521</v>
       </c>
       <c r="E228" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6188,16 +6034,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>524</v>
       </c>
       <c r="E229" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6205,16 +6051,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>387</v>
       </c>
       <c r="E230" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6222,16 +6068,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>387</v>
       </c>
       <c r="E231" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6239,16 +6085,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C232" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>169</v>
+        <v>387</v>
       </c>
       <c r="E232" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6256,16 +6102,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>387</v>
       </c>
       <c r="E233" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6273,16 +6119,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D234" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E234" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6290,16 +6136,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C235" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>543</v>
+        <v>87</v>
       </c>
       <c r="E235" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6307,16 +6153,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E236" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6324,16 +6170,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>542</v>
       </c>
       <c r="E237" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6341,16 +6187,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>545</v>
       </c>
       <c r="E238" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6358,16 +6204,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>7</v>
+        <v>548</v>
       </c>
       <c r="E239" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6375,16 +6221,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>551</v>
       </c>
       <c r="E240" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6392,16 +6238,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>553</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>554</v>
+      </c>
+      <c r="E241" t="s">
         <v>555</v>
-      </c>
-      <c r="C241" t="s">
-        <v>6</v>
-      </c>
-      <c r="D241" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6409,16 +6255,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>556</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>87</v>
+      </c>
+      <c r="E242" t="s">
         <v>557</v>
-      </c>
-      <c r="C242" t="s">
-        <v>6</v>
-      </c>
-      <c r="D242" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6426,16 +6272,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>558</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243" t="s">
         <v>559</v>
-      </c>
-      <c r="C243" t="s">
-        <v>6</v>
-      </c>
-      <c r="D243" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6443,16 +6289,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>560</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244" t="s">
         <v>561</v>
-      </c>
-      <c r="C244" t="s">
-        <v>6</v>
-      </c>
-      <c r="D244" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6460,16 +6306,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>562</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>384</v>
+      </c>
+      <c r="E245" t="s">
         <v>563</v>
-      </c>
-      <c r="C245" t="s">
-        <v>26</v>
-      </c>
-      <c r="D245" t="s">
-        <v>564</v>
-      </c>
-      <c r="E245" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6477,16 +6323,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C246" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>567</v>
+        <v>384</v>
       </c>
       <c r="E246" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6494,16 +6340,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C247" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D247" t="s">
-        <v>570</v>
+        <v>11</v>
       </c>
       <c r="E247" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6511,16 +6357,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>384</v>
       </c>
       <c r="E248" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6528,16 +6374,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E249" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6545,16 +6391,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E250" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6562,16 +6408,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E251" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6579,16 +6425,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E252" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6596,16 +6442,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E253" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6613,16 +6459,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>581</v>
       </c>
       <c r="E254" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6630,16 +6476,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>584</v>
       </c>
       <c r="E255" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6647,339 +6493,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>384</v>
       </c>
       <c r="E256" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257">
-        <v>256</v>
-      </c>
-      <c r="B257" t="s">
-        <v>590</v>
-      </c>
-      <c r="C257" t="s">
-        <v>6</v>
-      </c>
-      <c r="D257" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258">
-        <v>257</v>
-      </c>
-      <c r="B258" t="s">
-        <v>592</v>
-      </c>
-      <c r="C258" t="s">
-        <v>6</v>
-      </c>
-      <c r="D258" t="s">
-        <v>7</v>
-      </c>
-      <c r="E258" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259">
-        <v>258</v>
-      </c>
-      <c r="B259" t="s">
-        <v>594</v>
-      </c>
-      <c r="C259" t="s">
-        <v>26</v>
-      </c>
-      <c r="D259" t="s">
-        <v>595</v>
-      </c>
-      <c r="E259" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260">
-        <v>259</v>
-      </c>
-      <c r="B260" t="s">
-        <v>597</v>
-      </c>
-      <c r="C260" t="s">
-        <v>6</v>
-      </c>
-      <c r="D260" t="s">
-        <v>7</v>
-      </c>
-      <c r="E260" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>599</v>
-      </c>
-      <c r="C261" t="s">
-        <v>6</v>
-      </c>
-      <c r="D261" t="s">
-        <v>7</v>
-      </c>
-      <c r="E261" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262">
-        <v>261</v>
-      </c>
-      <c r="B262" t="s">
-        <v>601</v>
-      </c>
-      <c r="C262" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" t="s">
-        <v>7</v>
-      </c>
-      <c r="E262" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263">
-        <v>262</v>
-      </c>
-      <c r="B263" t="s">
-        <v>603</v>
-      </c>
-      <c r="C263" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264">
-        <v>263</v>
-      </c>
-      <c r="B264" t="s">
-        <v>605</v>
-      </c>
-      <c r="C264" t="s">
-        <v>26</v>
-      </c>
-      <c r="D264" t="s">
-        <v>606</v>
-      </c>
-      <c r="E264" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265">
-        <v>264</v>
-      </c>
-      <c r="B265" t="s">
-        <v>608</v>
-      </c>
-      <c r="C265" t="s">
-        <v>26</v>
-      </c>
-      <c r="D265" t="s">
-        <v>609</v>
-      </c>
-      <c r="E265" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266">
-        <v>265</v>
-      </c>
-      <c r="B266" t="s">
-        <v>611</v>
-      </c>
-      <c r="C266" t="s">
-        <v>6</v>
-      </c>
-      <c r="D266" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>613</v>
-      </c>
-      <c r="C267" t="s">
-        <v>6</v>
-      </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268">
-        <v>267</v>
-      </c>
-      <c r="B268" t="s">
-        <v>615</v>
-      </c>
-      <c r="C268" t="s">
-        <v>6</v>
-      </c>
-      <c r="D268" t="s">
-        <v>7</v>
-      </c>
-      <c r="E268" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269">
-        <v>268</v>
-      </c>
-      <c r="B269" t="s">
-        <v>617</v>
-      </c>
-      <c r="C269" t="s">
-        <v>6</v>
-      </c>
-      <c r="D269" t="s">
-        <v>7</v>
-      </c>
-      <c r="E269" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270">
-        <v>269</v>
-      </c>
-      <c r="B270" t="s">
-        <v>619</v>
-      </c>
-      <c r="C270" t="s">
-        <v>6</v>
-      </c>
-      <c r="D270" t="s">
-        <v>7</v>
-      </c>
-      <c r="E270" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271">
-        <v>270</v>
-      </c>
-      <c r="B271" t="s">
-        <v>621</v>
-      </c>
-      <c r="C271" t="s">
-        <v>6</v>
-      </c>
-      <c r="D271" t="s">
-        <v>7</v>
-      </c>
-      <c r="E271" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272">
-        <v>271</v>
-      </c>
-      <c r="B272" t="s">
-        <v>623</v>
-      </c>
-      <c r="C272" t="s">
-        <v>26</v>
-      </c>
-      <c r="D272" t="s">
-        <v>624</v>
-      </c>
-      <c r="E272" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273">
-        <v>272</v>
-      </c>
-      <c r="B273" t="s">
-        <v>626</v>
-      </c>
-      <c r="C273" t="s">
-        <v>26</v>
-      </c>
-      <c r="D273" t="s">
-        <v>627</v>
-      </c>
-      <c r="E273" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274">
-        <v>273</v>
-      </c>
-      <c r="B274" t="s">
-        <v>629</v>
-      </c>
-      <c r="C274" t="s">
-        <v>26</v>
-      </c>
-      <c r="D274" t="s">
-        <v>630</v>
-      </c>
-      <c r="E274" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275">
-        <v>274</v>
-      </c>
-      <c r="B275" t="s">
-        <v>632</v>
-      </c>
-      <c r="C275" t="s">
-        <v>6</v>
-      </c>
-      <c r="D275" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" t="s">
-        <v>633</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
